--- a/1-power-query/2-what-makes-data-tidy/tidy-data.xlsx
+++ b/1-power-query/2-what-makes-data-tidy/tidy-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intro-to-excel-power-query\2-what-makes-data-tidy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\foundations-analytics-excel-multivac\1-power-query\2-what-makes-data-tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{16889505-E6BC-4C2A-95C3-DD0BB0985EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE93382B-D233-42CA-820B-78619687EA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="tidy" sheetId="6" r:id="rId1"/>
@@ -203,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,25 +231,31 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Gidole"/>
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Gidole"/>
-      <family val="3"/>
+      <name val="Pragmatica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Gidole"/>
-      <family val="3"/>
+      <name val="Pragmatica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Pragmatica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,22 +303,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,20 +326,7 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Gidole"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -346,6 +339,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -377,7 +372,21 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -393,24 +402,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -477,6 +468,21 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Gidole"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -600,7 +606,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+  <tableStyles count="3" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E4EE955A-20BF-48F9-9A5E-712B3ACCF322}"/>
     <tableStyle name="Stringfest" pivot="0" count="3" xr9:uid="{80757AD5-BA57-4B3B-81C1-A3519B7631A7}">
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -967,32 +974,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7207A02D-C642-4AB2-9DAC-203ED5A1BAE6}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7207A02D-C642-4AB2-9DAC-203ED5A1BAE6}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:C4" xr:uid="{7FF37C84-13D8-4FC5-9481-0717EEBCDF53}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7EF0C945-8B64-481B-A5F6-9154E2FDA154}" name="X" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D4549ABE-557D-43AC-861E-74FB84F85417}" name="Y" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4F62AB46-DBF9-4DB2-B7EC-0B63B74CA316}" name="Z" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{7EF0C945-8B64-481B-A5F6-9154E2FDA154}" name="X" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D4549ABE-557D-43AC-861E-74FB84F85417}" name="Y" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4F62AB46-DBF9-4DB2-B7EC-0B63B74CA316}" name="Z" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Stringfest" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{777D1260-E323-4314-9D99-341A60B02A90}" name="Table13" displayName="Table13" ref="E1:G4" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{777D1260-E323-4314-9D99-341A60B02A90}" name="Table13" displayName="Table13" ref="E1:G4" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="E1:G4" xr:uid="{617E2D2A-8981-40EC-B4CF-0DEBD14BDEE1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C225F783-2FF6-4623-98AC-345B9D029196}" name="X" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C225F783-2FF6-4623-98AC-345B9D029196}" name="X" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{45CD194B-0009-4B97-8725-6C71786CF09B}" name="Y" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5735166F-A93C-43AF-9849-C3F00D9AFD72}" name="Z" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5735166F-A93C-43AF-9849-C3F00D9AFD72}" name="Z" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Stringfest" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1297,11 +1304,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="36.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1332,7 +1341,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="36.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1342,7 +1351,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="36.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1352,29 +1361,29 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1383,7 +1392,7 @@
     <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="2">
     <tablePart r:id="rId3"/>
@@ -1399,10 +1408,10 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G39" activeCellId="1" sqref="K13 G39"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A13"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.42578125" customWidth="1"/>
@@ -1410,7 +1419,7 @@
     <col min="8" max="8" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
@@ -1429,8 +1438,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1452,8 +1461,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1473,8 +1482,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1494,8 +1503,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1515,8 +1524,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1536,8 +1545,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1557,8 +1566,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1578,8 +1587,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1599,8 +1608,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1620,8 +1629,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1641,8 +1650,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1671,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7"/>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="7.35" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1694,8 +1703,8 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1717,8 +1726,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1738,8 +1747,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1759,8 +1768,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1780,8 +1789,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1801,8 +1810,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
@@ -1822,8 +1831,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7"/>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1843,8 +1852,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7"/>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1864,8 +1873,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7"/>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
@@ -1885,8 +1894,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1906,8 +1915,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1936,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1962,31 +1971,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B59FC9-6632-4853-9EAA-FCE172755231}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2000,7 +2009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -2070,7 +2079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -2126,7 +2135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -2308,7 +2317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2387,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2392,7 +2401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -2420,7 +2429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2476,7 +2485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2490,7 +2499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -2504,7 +2513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -2672,7 +2681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -2686,7 +2695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2700,7 +2709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -2714,7 +2723,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -2770,7 +2779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2784,7 +2793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -2826,7 +2835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
         <v>8</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
         <v>8</v>
       </c>
@@ -2854,7 +2863,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
         <v>8</v>
       </c>
@@ -2896,7 +2905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +2947,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -2966,7 +2975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>8</v>
       </c>
@@ -2980,7 +2989,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>8</v>
       </c>
@@ -2994,7 +3003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -3008,7 +3017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3036,7 +3045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3050,7 +3059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -3064,7 +3073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -3092,7 +3101,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -3120,7 +3129,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -3134,7 +3143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -3148,7 +3157,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -3162,7 +3171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
         <v>8</v>
       </c>
@@ -3176,7 +3185,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
         <v>8</v>
       </c>
@@ -3190,7 +3199,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
         <v>8</v>
       </c>
@@ -3204,7 +3213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
         <v>8</v>
       </c>
@@ -3218,7 +3227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
         <v>8</v>
       </c>
@@ -3232,7 +3241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
         <v>8</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
         <v>8</v>
       </c>
@@ -3260,7 +3269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
         <v>8</v>
       </c>
@@ -3274,7 +3283,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
         <v>8</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
         <v>8</v>
       </c>
@@ -3316,7 +3325,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
         <v>8</v>
       </c>
@@ -3344,35 +3353,35 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="31.5">
+      <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4"/>
@@ -3381,7 +3390,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -3401,7 +3410,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>38</v>
@@ -3419,7 +3428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>40</v>
@@ -3457,7 +3466,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>41</v>
@@ -3475,7 +3484,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3483,8 +3492,8 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="4"/>
@@ -3493,7 +3502,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -3513,7 +3522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>34</v>
@@ -3531,7 +3540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
@@ -3583,7 +3592,7 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -3592,24 +3601,24 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -3660,7 +3669,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -3677,7 +3686,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -3694,7 +3703,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -3711,7 +3720,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -3728,7 +3737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -3745,7 +3754,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -3762,7 +3771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -3796,7 +3805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -3813,7 +3822,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -3830,7 +3839,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -3847,7 +3856,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -3864,7 +3873,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -3881,7 +3890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -3915,7 +3924,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -3932,7 +3941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -3949,7 +3958,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -3983,7 +3992,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -4000,7 +4009,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -4034,7 +4043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -4051,7 +4060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -4085,7 +4094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -4102,7 +4111,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -4136,7 +4145,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -4153,7 +4162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
@@ -4204,7 +4213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>27</v>
       </c>
